--- a/docs/content/DataTypes.xlsx
+++ b/docs/content/DataTypes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johna\Documents\GitHub\fsharpx\tests\FSharpx.TypeProviders.Excel.Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\ExcelProvider4\docs\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>String</t>
   </si>
@@ -42,19 +42,43 @@
   </si>
   <si>
     <t>Currency</t>
+  </si>
+  <si>
+    <t>Friday, January 15, 2016</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Thursday, May 5, 2016</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Saturday, February 6, 2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,13 +106,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,35 +420,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -435,16 +462,54 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
-        <f ca="1">NOW()</f>
-        <v>41449.359279166667</v>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E2" s="4">
-        <f ca="1" xml:space="preserve"> NOW()</f>
-        <v>41449.359279166667</v>
+        <v>0.4276388888888889</v>
       </c>
       <c r="F2" s="5">
         <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.53763888888888889</v>
+      </c>
+      <c r="F3" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.52763888888888888</v>
+      </c>
+      <c r="F4" s="7">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
